--- a/biology/Médecine/Puncture/Puncture.xlsx
+++ b/biology/Médecine/Puncture/Puncture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puncture est un film juridique biographique américain produit et réalisé par Adam et Mark Kassen et sorti en 2011.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Houston dans les années 1990, un avocat toxicomane (Evans) et son associé (Kassen), intentent un procès pour entrave au droit de la concurrence contre le lobby des fabricants de seringues.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Puncture
 Titre québécois : Piqûre
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chris Evans : Mike Weiss
 Mark Kassen : Paul Danziger
@@ -632,9 +650,11 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Puncture  reçoit des critiques assez positives. L'agrégateur Rotten Tomatoes rapporte que 53 % des 38 critiques ont donné un avis positif sur le film, avec une moyenne passable de 5,7/10 [1]. L'agrégateur Metacritic donne une note de 54 sur 100 indiquant des « critiques mitigées » [2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Puncture  reçoit des critiques assez positives. L'agrégateur Rotten Tomatoes rapporte que 53 % des 38 critiques ont donné un avis positif sur le film, avec une moyenne passable de 5,7/10 . L'agrégateur Metacritic donne une note de 54 sur 100 indiquant des « critiques mitigées » .
 </t>
         </is>
       </c>
